--- a/example.xlsx
+++ b/example.xlsx
@@ -37,7 +37,7 @@
     <t>Bluetooth cihaz listesini görüntüle</t>
   </si>
   <si>
-    <t>デ バ イ ス が あ り ま せ ん Bluetooth デ バ イ ス の 検 素 Bluetooth デ バ イ ス リ ス ト の 表 示 OK</t>
+    <t>オーディオイConnectivityシステム</t>
   </si>
   <si>
     <t>Fail</t>
@@ -67,7 +67,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Bluetooth Bluetooth*' V OK</t>
+    <t>Connectivity</t>
   </si>
   <si>
     <t>backup/20170409204137170690.png</t>
@@ -1341,7 +1341,7 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s"/>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s"/>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
